--- a/IF2111_FormPenilaian_XX.xlsx
+++ b/IF2111_FormPenilaian_XX.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="164">
   <si>
     <t>BAGIAN I. SOURCE CODE</t>
   </si>
@@ -512,6 +512,9 @@
   <si>
     <t>Vincentius Ian Widi Nugroho</t>
   </si>
+  <si>
+    <t>K-01</t>
+  </si>
 </sst>
 </file>
 
@@ -991,6 +994,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -999,35 +1005,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,7 +1352,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1510,7 +1513,9 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="55" t="s">
+        <v>163</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1540,7 +1545,9 @@
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="55">
+        <v>11</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1733,7 +1740,9 @@
       <c r="B13" s="56">
         <v>18218001</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="55" t="s">
+        <v>159</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1765,7 +1774,9 @@
       <c r="B14" s="56">
         <v>18218002</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="55" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1797,7 +1808,9 @@
       <c r="B15" s="56">
         <v>18218009</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="55" t="s">
+        <v>161</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1829,7 +1842,9 @@
       <c r="B16" s="56">
         <v>18218034</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="55" t="s">
+        <v>162</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -29438,8 +29453,8 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -29632,10 +29647,10 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="12" customHeight="1">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="96" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -29644,17 +29659,17 @@
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="95" t="s">
+      <c r="F7" s="99"/>
+      <c r="G7" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="96" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="9"/>
@@ -29676,8 +29691,8 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="18" t="s">
         <v>38</v>
       </c>
@@ -29688,9 +29703,9 @@
       <c r="F8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -30773,7 +30788,7 @@
       <c r="Z42" s="5"/>
     </row>
     <row r="43" spans="1:26" ht="12" customHeight="1">
-      <c r="A43" s="99">
+      <c r="A43" s="95">
         <v>2</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -57588,12 +57603,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A7:A8"/>
@@ -57602,6 +57611,12 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57614,8 +57629,8 @@
   </sheetPr>
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="71" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="71" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -57684,26 +57699,28 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="106">
+      <c r="C8" s="111">
         <v>0.2</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="102"/>
+      <c r="D8" s="109">
+        <v>4</v>
+      </c>
+      <c r="E8" s="110"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="103"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="104"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" customHeight="1">
       <c r="A10" s="24" t="s">
@@ -57715,30 +57732,34 @@
       <c r="C10" s="25">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D10" s="67"/>
+      <c r="D10" s="67">
+        <v>4</v>
+      </c>
       <c r="E10" s="68"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="100" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="106">
+      <c r="C11" s="111">
         <v>0.3</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="102"/>
+      <c r="D11" s="109">
+        <v>4</v>
+      </c>
+      <c r="E11" s="110"/>
     </row>
     <row r="12" spans="1:5" ht="36" customHeight="1">
-      <c r="A12" s="96"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="103"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="104"/>
     </row>
     <row r="13" spans="1:5" ht="28.5" customHeight="1">
       <c r="A13" s="24" t="s">
@@ -57767,17 +57788,17 @@
       <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="100" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="108">
         <v>0.2</v>
       </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="102"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="101"/>
@@ -57785,8 +57806,8 @@
         <v>54</v>
       </c>
       <c r="C16" s="101"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="103"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="101"/>
@@ -57794,8 +57815,8 @@
         <v>55</v>
       </c>
       <c r="C17" s="101"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="103"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="101"/>
@@ -57803,17 +57824,17 @@
         <v>56</v>
       </c>
       <c r="C18" s="101"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="103"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="96"/>
+      <c r="A19" s="97"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="103"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="104"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1">
       <c r="A20" s="24" t="s">
@@ -57839,7 +57860,7 @@
       </c>
       <c r="D21" s="17">
         <f>SUMPRODUCT(D8:D20,C8:C20)</f>
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E21" s="17">
         <f>SUMPRODUCT(E8:E20,C8:C20)</f>
@@ -57880,17 +57901,19 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="100" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="100">
+      <c r="C25" s="108">
         <v>0.3</v>
       </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="108"/>
+      <c r="D25" s="105">
+        <v>3</v>
+      </c>
+      <c r="E25" s="102"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="101"/>
@@ -57898,30 +57921,32 @@
         <v>72</v>
       </c>
       <c r="C26" s="101"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="109"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="103"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="96"/>
+      <c r="A27" s="97"/>
       <c r="B27" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="103"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="104"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="100" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="100">
+      <c r="C28" s="108">
         <v>0.2</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="108"/>
+      <c r="D28" s="105">
+        <v>3</v>
+      </c>
+      <c r="E28" s="102"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="101"/>
@@ -57929,8 +57954,8 @@
         <v>81</v>
       </c>
       <c r="C29" s="101"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="109"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="103"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="101"/>
@@ -57938,30 +57963,32 @@
         <v>133</v>
       </c>
       <c r="C30" s="101"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="109"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="103"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="96"/>
+      <c r="A31" s="97"/>
       <c r="B31" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="103"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="104"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="100" t="s">
         <v>85</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="100">
+      <c r="C32" s="108">
         <v>0.2</v>
       </c>
-      <c r="D32" s="110"/>
-      <c r="E32" s="108"/>
+      <c r="D32" s="105">
+        <v>3</v>
+      </c>
+      <c r="E32" s="102"/>
     </row>
     <row r="33" spans="1:5" ht="24" customHeight="1">
       <c r="A33" s="101"/>
@@ -57969,30 +57996,30 @@
         <v>91</v>
       </c>
       <c r="C33" s="101"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="109"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="103"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="96"/>
+      <c r="A34" s="97"/>
       <c r="B34" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="103"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="104"/>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="100" t="s">
         <v>94</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="100">
+      <c r="C35" s="108">
         <v>0.3</v>
       </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="108"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="102"/>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1">
       <c r="A36" s="101"/>
@@ -58000,8 +58027,8 @@
         <v>100</v>
       </c>
       <c r="C36" s="101"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="109"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="103"/>
     </row>
     <row r="37" spans="1:5" ht="24" customHeight="1">
       <c r="A37" s="101"/>
@@ -58009,8 +58036,8 @@
         <v>102</v>
       </c>
       <c r="C37" s="101"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="109"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="103"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="101"/>
@@ -58018,8 +58045,8 @@
         <v>103</v>
       </c>
       <c r="C38" s="101"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="109"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="103"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="101"/>
@@ -58027,8 +58054,8 @@
         <v>104</v>
       </c>
       <c r="C39" s="101"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="109"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="103"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="101"/>
@@ -58036,17 +58063,17 @@
         <v>105</v>
       </c>
       <c r="C40" s="101"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="109"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="103"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="96"/>
+      <c r="A41" s="97"/>
       <c r="B41" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="103"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="104"/>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1">
       <c r="A42" s="33"/>
@@ -58059,7 +58086,7 @@
       </c>
       <c r="D42" s="15">
         <f>SUMPRODUCT(D25:D41,C25:C41)</f>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="E42" s="15">
         <f>SUMPRODUCT(E25:E41,C25:C41)</f>
@@ -58088,7 +58115,7 @@
       </c>
       <c r="B45" s="69">
         <f>0.8*D21+0.2*D42</f>
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -64829,11 +64856,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="A35:A41"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="E28:E31"/>
@@ -64850,13 +64879,11 @@
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="E15:E19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64869,8 +64896,8 @@
   </sheetPr>
   <dimension ref="A1:Y990"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
